--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H2">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N2">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P2">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q2">
-        <v>6278.09778960701</v>
+        <v>6840.276690308563</v>
       </c>
       <c r="R2">
-        <v>6278.09778960701</v>
+        <v>61562.49021277707</v>
       </c>
       <c r="S2">
-        <v>0.04926558987231145</v>
+        <v>0.05164896051149049</v>
       </c>
       <c r="T2">
-        <v>0.04926558987231145</v>
+        <v>0.05164896051149048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H3">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P3">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q3">
-        <v>30440.68452797792</v>
+        <v>30752.29202303825</v>
       </c>
       <c r="R3">
-        <v>30440.68452797792</v>
+        <v>276770.6282073443</v>
       </c>
       <c r="S3">
-        <v>0.2388746288518154</v>
+        <v>0.232201705902642</v>
       </c>
       <c r="T3">
-        <v>0.2388746288518154</v>
+        <v>0.232201705902642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H4">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J4">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N4">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P4">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q4">
-        <v>33692.62707727854</v>
+        <v>33955.27520401219</v>
       </c>
       <c r="R4">
-        <v>33692.62707727854</v>
+        <v>305597.4768361098</v>
       </c>
       <c r="S4">
-        <v>0.2643933246878979</v>
+        <v>0.2563865100155336</v>
       </c>
       <c r="T4">
-        <v>0.2643933246878979</v>
+        <v>0.2563865100155336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H5">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J5">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N5">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P5">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q5">
-        <v>29010.02501437287</v>
+        <v>30248.12861117036</v>
       </c>
       <c r="R5">
-        <v>29010.02501437287</v>
+        <v>272233.1575005332</v>
       </c>
       <c r="S5">
-        <v>0.2276479345239784</v>
+        <v>0.2283949130885741</v>
       </c>
       <c r="T5">
-        <v>0.2276479345239784</v>
+        <v>0.2283949130885741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H6">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I6">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J6">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N6">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P6">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q6">
-        <v>4889.500985457277</v>
+        <v>5415.730835278399</v>
       </c>
       <c r="R6">
-        <v>4889.500985457277</v>
+        <v>48741.57751750559</v>
       </c>
       <c r="S6">
-        <v>0.03836897071411809</v>
+        <v>0.04089262477473517</v>
       </c>
       <c r="T6">
-        <v>0.03836897071411809</v>
+        <v>0.04089262477473517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H7">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J7">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N7">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P7">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q7">
-        <v>1104.469093422361</v>
+        <v>1281.349591141211</v>
       </c>
       <c r="R7">
-        <v>1104.469093422361</v>
+        <v>11532.1463202709</v>
       </c>
       <c r="S7">
-        <v>0.008667007620248574</v>
+        <v>0.009675101963058387</v>
       </c>
       <c r="T7">
-        <v>0.008667007620248574</v>
+        <v>0.009675101963058385</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H8">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J8">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P8">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q8">
-        <v>5355.251920323533</v>
+        <v>5760.649545975847</v>
       </c>
       <c r="R8">
-        <v>5355.251920323533</v>
+        <v>51845.84591378263</v>
       </c>
       <c r="S8">
-        <v>0.04202381893546173</v>
+        <v>0.04349700668427502</v>
       </c>
       <c r="T8">
-        <v>0.04202381893546173</v>
+        <v>0.04349700668427502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H9">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J9">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N9">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P9">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q9">
-        <v>5927.347188612192</v>
+        <v>6360.645916764176</v>
       </c>
       <c r="R9">
-        <v>5927.347188612192</v>
+        <v>57245.81325087758</v>
       </c>
       <c r="S9">
-        <v>0.04651317411913804</v>
+        <v>0.04802740658838855</v>
       </c>
       <c r="T9">
-        <v>0.04651317411913804</v>
+        <v>0.04802740658838855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H10">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J10">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N10">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P10">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q10">
-        <v>5103.56434409571</v>
+        <v>5666.207521053002</v>
       </c>
       <c r="R10">
-        <v>5103.56434409571</v>
+        <v>50995.86768947702</v>
       </c>
       <c r="S10">
-        <v>0.0400487721423196</v>
+        <v>0.04278390213650485</v>
       </c>
       <c r="T10">
-        <v>0.0400487721423196</v>
+        <v>0.04278390213650485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.1838909844147</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H11">
-        <v>65.1838909844147</v>
+        <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J11">
-        <v>0.1440028018419346</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N11">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P11">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q11">
-        <v>860.181364112486</v>
+        <v>1014.497630095398</v>
       </c>
       <c r="R11">
-        <v>860.181364112486</v>
+        <v>9130.478670858578</v>
       </c>
       <c r="S11">
-        <v>0.006750029024766725</v>
+        <v>0.007660179610868084</v>
       </c>
       <c r="T11">
-        <v>0.006750029024766725</v>
+        <v>0.007660179610868083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H12">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J12">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N12">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P12">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q12">
-        <v>5.207573493003364</v>
+        <v>7.120562760812</v>
       </c>
       <c r="R12">
-        <v>5.207573493003364</v>
+        <v>64.085064847308</v>
       </c>
       <c r="S12">
-        <v>4.086495440719849E-05</v>
+        <v>5.376531995757305E-05</v>
       </c>
       <c r="T12">
-        <v>4.086495440719849E-05</v>
+        <v>5.376531995757303E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H13">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J13">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P13">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q13">
-        <v>25.25002113206944</v>
+        <v>32.01239296344666</v>
       </c>
       <c r="R13">
-        <v>25.25002113206944</v>
+        <v>288.11153667102</v>
       </c>
       <c r="S13">
-        <v>0.0001981423716303085</v>
+        <v>0.0002417163654198304</v>
       </c>
       <c r="T13">
-        <v>0.0001981423716303085</v>
+        <v>0.0002417163654198304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H14">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I14">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J14">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N14">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P14">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q14">
-        <v>27.94745121169356</v>
+        <v>35.34662106481333</v>
       </c>
       <c r="R14">
-        <v>27.94745121169356</v>
+        <v>318.11958958332</v>
       </c>
       <c r="S14">
-        <v>0.0002193096883025639</v>
+        <v>0.0002668921621515297</v>
       </c>
       <c r="T14">
-        <v>0.0002193096883025639</v>
+        <v>0.0002668921621515297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H15">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I15">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J15">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N15">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P15">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q15">
-        <v>24.06331381876569</v>
+        <v>31.48757103321734</v>
       </c>
       <c r="R15">
-        <v>24.06331381876569</v>
+        <v>283.388139298956</v>
       </c>
       <c r="S15">
-        <v>0.0001888300229293248</v>
+        <v>0.000237753586079576</v>
       </c>
       <c r="T15">
-        <v>0.0001888300229293248</v>
+        <v>0.000237753586079576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.307342147356449</v>
+        <v>0.387356</v>
       </c>
       <c r="H16">
-        <v>0.307342147356449</v>
+        <v>1.162068</v>
       </c>
       <c r="I16">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="J16">
-        <v>0.0006789734346178783</v>
+        <v>0.0008426956679571845</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N16">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P16">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q16">
-        <v>4.055756469424955</v>
+        <v>5.637644945401334</v>
       </c>
       <c r="R16">
-        <v>4.055756469424955</v>
+        <v>50.73880450861201</v>
       </c>
       <c r="S16">
-        <v>3.182639734848271E-05</v>
+        <v>4.256823434867552E-05</v>
       </c>
       <c r="T16">
-        <v>3.182639734848271E-05</v>
+        <v>4.256823434867551E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H17">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J17">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N17">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P17">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q17">
-        <v>7.101613950215072</v>
+        <v>7.812957139493999</v>
       </c>
       <c r="R17">
-        <v>7.101613950215072</v>
+        <v>70.316614255446</v>
       </c>
       <c r="S17">
-        <v>5.572789912287778E-05</v>
+        <v>5.8993390625181E-05</v>
       </c>
       <c r="T17">
-        <v>5.572789912287778E-05</v>
+        <v>5.899339062518099E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H18">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I18">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J18">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P18">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q18">
-        <v>34.43367675091856</v>
+        <v>35.12523694511</v>
       </c>
       <c r="R18">
-        <v>34.43367675091856</v>
+        <v>316.1271325059899</v>
       </c>
       <c r="S18">
-        <v>0.0002702085015965782</v>
+        <v>0.0002652205543827052</v>
       </c>
       <c r="T18">
-        <v>0.0002702085015965782</v>
+        <v>0.0002652205543827052</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H19">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I19">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J19">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N19">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P19">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q19">
-        <v>38.11218596618468</v>
+        <v>38.78368110526</v>
       </c>
       <c r="R19">
-        <v>38.11218596618468</v>
+        <v>349.05312994734</v>
       </c>
       <c r="S19">
-        <v>0.000299074558229341</v>
+        <v>0.0002928444132580042</v>
       </c>
       <c r="T19">
-        <v>0.000299074558229341</v>
+        <v>0.0002928444132580042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H20">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I20">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J20">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N20">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P20">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q20">
-        <v>32.81535351029547</v>
+        <v>34.549382004358</v>
       </c>
       <c r="R20">
-        <v>32.81535351029547</v>
+        <v>310.944438039222</v>
       </c>
       <c r="S20">
-        <v>0.0002575091694540698</v>
+        <v>0.0002608724394683793</v>
       </c>
       <c r="T20">
-        <v>0.0002575091694540698</v>
+        <v>0.0002608724394683793</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.419125199882072</v>
+        <v>0.425022</v>
       </c>
       <c r="H21">
-        <v>0.419125199882072</v>
+        <v>1.275066</v>
       </c>
       <c r="I21">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="J21">
-        <v>0.0009259220674631104</v>
+        <v>0.0009246383125251667</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N21">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P21">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q21">
-        <v>5.530870905737728</v>
+        <v>6.185842300066001</v>
       </c>
       <c r="R21">
-        <v>5.530870905737728</v>
+        <v>55.672580700594</v>
       </c>
       <c r="S21">
-        <v>4.340193906024378E-05</v>
+        <v>4.670751479089717E-05</v>
       </c>
       <c r="T21">
-        <v>4.340193906024378E-05</v>
+        <v>4.670751479089716E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H22">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I22">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J22">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9438963636957</v>
+        <v>18.382477</v>
       </c>
       <c r="N22">
-        <v>16.9438963636957</v>
+        <v>55.147431</v>
       </c>
       <c r="O22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420245</v>
       </c>
       <c r="P22">
-        <v>0.06018638185777771</v>
+        <v>0.06380158579420243</v>
       </c>
       <c r="Q22">
-        <v>274.8989567847757</v>
+        <v>313.1843133589316</v>
       </c>
       <c r="R22">
-        <v>274.8989567847757</v>
+        <v>2818.658820230385</v>
       </c>
       <c r="S22">
-        <v>0.002157191511687616</v>
+        <v>0.002364764609070813</v>
       </c>
       <c r="T22">
-        <v>0.002157191511687616</v>
+        <v>0.002364764609070813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H23">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I23">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J23">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.1560640128703</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
-        <v>82.1560640128703</v>
+        <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="P23">
-        <v>0.2918263978057133</v>
+        <v>0.2868370808239535</v>
       </c>
       <c r="Q23">
-        <v>1332.905714595346</v>
+        <v>1408.003783691114</v>
       </c>
       <c r="R23">
-        <v>1332.905714595346</v>
+        <v>12672.03405322002</v>
       </c>
       <c r="S23">
-        <v>0.01045959914520941</v>
+        <v>0.0106314313172339</v>
       </c>
       <c r="T23">
-        <v>0.01045959914520941</v>
+        <v>0.0106314313172339</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H24">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I24">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J24">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>90.9326997682511</v>
+        <v>91.25099666666667</v>
       </c>
       <c r="N24">
-        <v>90.9326997682511</v>
+        <v>273.75299</v>
       </c>
       <c r="O24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="P24">
-        <v>0.3230018688816447</v>
+        <v>0.3167123936907314</v>
       </c>
       <c r="Q24">
-        <v>1475.298465438866</v>
+        <v>1554.653419904628</v>
       </c>
       <c r="R24">
-        <v>1475.298465438866</v>
+        <v>13991.88077914165</v>
       </c>
       <c r="S24">
-        <v>0.01157698582807696</v>
+        <v>0.01173874051139964</v>
       </c>
       <c r="T24">
-        <v>0.01157698582807696</v>
+        <v>0.01173874051139964</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H25">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I25">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J25">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.294871125689</v>
+        <v>81.28845566666666</v>
       </c>
       <c r="N25">
-        <v>78.294871125689</v>
+        <v>243.865367</v>
       </c>
       <c r="O25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="P25">
-        <v>0.2781110619380817</v>
+        <v>0.2821345773094157</v>
       </c>
       <c r="Q25">
-        <v>1270.261451797257</v>
+        <v>1384.920496403882</v>
       </c>
       <c r="R25">
-        <v>1270.261451797257</v>
+        <v>12464.28446763494</v>
       </c>
       <c r="S25">
-        <v>0.00996801607940037</v>
+        <v>0.01045713605878876</v>
       </c>
       <c r="T25">
-        <v>0.00996801607940037</v>
+        <v>0.01045713605878876</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.2240697702672</v>
+        <v>17.03711166666666</v>
       </c>
       <c r="H26">
-        <v>16.2240697702672</v>
+        <v>51.111335</v>
       </c>
       <c r="I26">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="J26">
-        <v>0.03584185400586344</v>
+        <v>0.03706435474344739</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1962261092722</v>
+        <v>14.55416966666667</v>
       </c>
       <c r="N26">
-        <v>13.1962261092722</v>
+        <v>43.662509</v>
       </c>
       <c r="O26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="P26">
-        <v>0.04687428951678264</v>
+        <v>0.0505143623816971</v>
       </c>
       <c r="Q26">
-        <v>214.0964931010538</v>
+        <v>247.9610138266127</v>
       </c>
       <c r="R26">
-        <v>214.0964931010538</v>
+        <v>2231.649124439515</v>
       </c>
       <c r="S26">
-        <v>0.001680061441489098</v>
+        <v>0.001872282246954275</v>
       </c>
       <c r="T26">
-        <v>0.001680061441489098</v>
+        <v>0.001872282246954275</v>
       </c>
     </row>
   </sheetData>
